--- a/Tài liệu/API_Request.xlsx
+++ b/Tài liệu/API_Request.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Stock Delivery\RIG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Stock Delivery\RIG\Tài liệu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0775A9-21EE-4351-B756-9FB260EDA4C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12556950-A5DB-4AEF-BBD4-3C408BB17196}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11970" xr2:uid="{FD3406BB-0391-43B8-BF0C-918148075138}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Process Xuất Hàng</t>
   </si>
@@ -175,6 +175,9 @@
       </rPr>
       <t>(VD: Status: Doing , Waiting, Mã nào đang thu thập, đang chờ, đã ở khu staging..)</t>
     </r>
+  </si>
+  <si>
+    <t>Tạm thời trước mắt là như thế</t>
   </si>
 </sst>
 </file>
@@ -263,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -392,11 +395,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -486,6 +526,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919388E9-6CCF-4743-8FCC-017EB42D5F14}">
-  <dimension ref="B3:Y12"/>
+  <dimension ref="B3:Y13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:U15"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1103,6 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1075,8 +1123,33 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="B13:U13"/>
     <mergeCell ref="B3:U4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
